--- a/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_1_school_202205.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_1_school_202205.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6196B-ACE8-421B-950B-927A1025084D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A93360-1CC2-43A7-8D00-DE243F9067A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="498" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="469">
   <si>
     <t>type</t>
   </si>
@@ -1549,10 +1549,64 @@
     <t>select_one source_type2</t>
   </si>
   <si>
-    <t>(Mai 2022) - 1. SCH/STH – Site V4</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_1_school_202205_v4</t>
+    <t>(Mai 2022) - 1. SCH/STH – Site V5</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_1_school_202205_v5</t>
+  </si>
+  <si>
+    <t>select_multiple place_defecate</t>
+  </si>
+  <si>
+    <t>w_place_defecate</t>
+  </si>
+  <si>
+    <t>Where children go to defecate ?</t>
+  </si>
+  <si>
+    <t>${w_toilet} = 'Non'  and ${w_consent} = 'Oui'</t>
+  </si>
+  <si>
+    <t>place_defecate</t>
+  </si>
+  <si>
+    <t>Dans.les.maisons.d.à.côté</t>
+  </si>
+  <si>
+    <t>In the houses next door</t>
+  </si>
+  <si>
+    <t>Dans les maisons d à côté</t>
+  </si>
+  <si>
+    <t>Chez.eux</t>
+  </si>
+  <si>
+    <t>At their home</t>
+  </si>
+  <si>
+    <t>Outdoors</t>
+  </si>
+  <si>
+    <t>Chez eux</t>
+  </si>
+  <si>
+    <t>Dans.la.nature</t>
+  </si>
+  <si>
+    <t>Dans la nature</t>
+  </si>
+  <si>
+    <t>Au bord des eaux de surface (rivière, marre, fleuve...)</t>
+  </si>
+  <si>
+    <t>At the edge of surface water (river, pond, river, etc.)</t>
+  </si>
+  <si>
+    <t>Au.bord.des.eaux.de.surface.(rivière,.marre,.fleuve,.etc)</t>
+  </si>
+  <si>
+    <t>10. Où les enfants vont pour faire leur besoin ?</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1791,6 +1845,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2134,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD21"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2737,137 +2794,143 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>453</v>
+      </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>468</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="23"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="29"/>
+      <c r="K20" s="29" t="s">
+        <v>454</v>
+      </c>
       <c r="L20" s="26"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>423</v>
-      </c>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="F21" s="11"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="23"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="9" t="s">
-        <v>426</v>
-      </c>
+      <c r="K21" s="29"/>
       <c r="L21" s="26"/>
       <c r="M21" s="9"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="F22" s="25"/>
+        <v>428</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="23"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="9" t="s">
+        <v>426</v>
+      </c>
       <c r="L22" s="26"/>
       <c r="M22" s="9"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>419</v>
+      <c r="A23" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>425</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="34" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="23"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="36" t="s">
-        <v>365</v>
-      </c>
+      <c r="K23" s="18"/>
       <c r="L23" s="26"/>
       <c r="M23" s="9"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>425</v>
+      </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>424</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="23"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="36" t="s">
+        <v>365</v>
+      </c>
       <c r="L24" s="26"/>
       <c r="M24" s="9"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="29"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="23"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="26"/>
       <c r="M25" s="9"/>
       <c r="N25" s="26"/>
@@ -2875,10 +2938,10 @@
     </row>
     <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>17</v>
@@ -2896,6 +2959,29 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
     </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2904,11 +2990,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H706"/>
+  <dimension ref="A1:H710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD44"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3741,75 +3827,71 @@
       <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="16"/>
+      <c r="A58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="16"/>
+      <c r="A59" t="s">
+        <v>455</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="16"/>
+      <c r="A60" t="s">
+        <v>455</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="4"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3817,13 +3899,13 @@
         <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="16"/>
@@ -3833,13 +3915,13 @@
         <v>51</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="16"/>
@@ -3849,13 +3931,13 @@
         <v>51</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="16"/>
@@ -3865,107 +3947,99 @@
         <v>51</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
+      <c r="A67" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>52</v>
+      <c r="A68" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>52</v>
+      <c r="A69" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>52</v>
+      <c r="A70" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
@@ -3977,17 +4051,17 @@
         <v>52</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3995,17 +4069,17 @@
         <v>52</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4013,17 +4087,17 @@
         <v>52</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4031,17 +4105,17 @@
         <v>52</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4049,17 +4123,17 @@
         <v>52</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -4067,17 +4141,17 @@
         <v>52</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4085,17 +4159,17 @@
         <v>52</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,17 +4177,17 @@
         <v>52</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4121,17 +4195,17 @@
         <v>52</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,17 +4213,17 @@
         <v>52</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -4157,17 +4231,17 @@
         <v>52</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,13 +4249,13 @@
         <v>52</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
@@ -4193,17 +4267,17 @@
         <v>52</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4211,17 +4285,17 @@
         <v>52</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4229,17 +4303,17 @@
         <v>52</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4247,13 +4321,13 @@
         <v>52</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
@@ -4265,17 +4339,17 @@
         <v>52</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4283,17 +4357,17 @@
         <v>52</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4301,17 +4375,17 @@
         <v>52</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4319,17 +4393,17 @@
         <v>52</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4337,17 +4411,17 @@
         <v>52</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,13 +4429,13 @@
         <v>52</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
@@ -4373,17 +4447,17 @@
         <v>52</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,17 +4465,17 @@
         <v>52</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4409,17 +4483,17 @@
         <v>52</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4427,17 +4501,17 @@
         <v>52</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4445,17 +4519,17 @@
         <v>52</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,17 +4537,17 @@
         <v>52</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4481,17 +4555,17 @@
         <v>52</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4499,13 +4573,13 @@
         <v>52</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
@@ -4517,17 +4591,17 @@
         <v>52</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4535,17 +4609,17 @@
         <v>52</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4553,17 +4627,17 @@
         <v>52</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,13 +4645,13 @@
         <v>52</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
@@ -4589,17 +4663,17 @@
         <v>52</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4607,17 +4681,17 @@
         <v>52</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4625,17 +4699,17 @@
         <v>52</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,17 +4717,17 @@
         <v>52</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4661,17 +4735,17 @@
         <v>52</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,17 +4753,17 @@
         <v>52</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,17 +4771,17 @@
         <v>52</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4715,17 +4789,17 @@
         <v>52</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4733,17 +4807,17 @@
         <v>52</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4751,17 +4825,17 @@
         <v>52</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4769,13 +4843,13 @@
         <v>52</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4" t="s">
@@ -4787,13 +4861,13 @@
         <v>52</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4" t="s">
@@ -4805,13 +4879,13 @@
         <v>52</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
@@ -4823,13 +4897,13 @@
         <v>52</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
@@ -4841,13 +4915,13 @@
         <v>52</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
@@ -4859,17 +4933,17 @@
         <v>52</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,17 +4951,17 @@
         <v>52</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4895,17 +4969,17 @@
         <v>52</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4913,17 +4987,17 @@
         <v>52</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4931,13 +5005,13 @@
         <v>52</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4" t="s">
@@ -4949,13 +5023,13 @@
         <v>52</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4" t="s">
@@ -4967,13 +5041,13 @@
         <v>52</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
@@ -4985,17 +5059,17 @@
         <v>52</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,17 +5077,17 @@
         <v>52</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -5021,17 +5095,17 @@
         <v>52</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5039,17 +5113,17 @@
         <v>52</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,17 +5131,17 @@
         <v>52</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -5075,17 +5149,17 @@
         <v>52</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -5093,13 +5167,13 @@
         <v>52</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
@@ -5111,17 +5185,17 @@
         <v>52</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -5129,13 +5203,13 @@
         <v>52</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
@@ -5147,17 +5221,17 @@
         <v>52</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -5165,17 +5239,17 @@
         <v>52</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,13 +5257,13 @@
         <v>52</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4" t="s">
@@ -5201,17 +5275,17 @@
         <v>52</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5219,13 +5293,13 @@
         <v>52</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4" t="s">
@@ -5237,13 +5311,13 @@
         <v>52</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
@@ -5255,17 +5329,17 @@
         <v>52</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -5273,17 +5347,17 @@
         <v>52</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -5291,17 +5365,17 @@
         <v>52</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5309,13 +5383,13 @@
         <v>52</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
@@ -5327,17 +5401,17 @@
         <v>52</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5345,17 +5419,17 @@
         <v>52</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,17 +5437,17 @@
         <v>52</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5381,17 +5455,17 @@
         <v>52</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5399,17 +5473,17 @@
         <v>52</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5417,17 +5491,17 @@
         <v>52</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5435,13 +5509,13 @@
         <v>52</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
@@ -5453,13 +5527,13 @@
         <v>52</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4" t="s">
@@ -5471,17 +5545,17 @@
         <v>52</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5489,17 +5563,17 @@
         <v>52</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5507,13 +5581,13 @@
         <v>52</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4" t="s">
@@ -5525,34 +5599,35 @@
         <v>52</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>52</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F160" t="s">
-        <v>113</v>
+      <c r="B160" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5560,115 +5635,114 @@
         <v>52</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F164" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" t="s">
+      <c r="E165" s="4"/>
+      <c r="F165" t="s">
         <v>118</v>
       </c>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E163" s="4"/>
-      <c r="G163" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E164" s="4"/>
-      <c r="G164" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E165" s="4"/>
-      <c r="G165" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="G165" s="4"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="G166" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5676,17 +5750,17 @@
         <v>112</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E168" s="4"/>
       <c r="G168" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5694,17 +5768,17 @@
         <v>112</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5712,17 +5786,17 @@
         <v>112</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="E170" s="4"/>
       <c r="G170" s="4" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5730,17 +5804,17 @@
         <v>112</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="E171" s="4"/>
       <c r="G171" s="4" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5748,17 +5822,17 @@
         <v>112</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E172" s="4"/>
       <c r="G172" s="4" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5766,17 +5840,17 @@
         <v>112</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E173" s="4"/>
       <c r="G173" s="4" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5784,17 +5858,17 @@
         <v>112</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E174" s="4"/>
       <c r="G174" s="4" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5802,17 +5876,17 @@
         <v>112</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="E175" s="4"/>
       <c r="G175" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5820,17 +5894,17 @@
         <v>112</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E176" s="4"/>
       <c r="G176" s="4" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5838,35 +5912,35 @@
         <v>112</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E177" s="4"/>
       <c r="G177" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E178" s="4"/>
       <c r="G178" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5874,17 +5948,17 @@
         <v>112</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="E179" s="4"/>
       <c r="G179" s="4" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5892,17 +5966,17 @@
         <v>112</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E180" s="4"/>
       <c r="G180" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5910,35 +5984,35 @@
         <v>112</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E181" s="4"/>
       <c r="G181" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A182" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E182" s="4"/>
       <c r="G182" s="4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5946,17 +6020,17 @@
         <v>112</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E183" s="4"/>
       <c r="G183" s="4" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5964,17 +6038,17 @@
         <v>112</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E184" s="4"/>
       <c r="G184" s="4" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5982,17 +6056,17 @@
         <v>112</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E185" s="4"/>
       <c r="G185" s="4" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6000,17 +6074,17 @@
         <v>112</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="E186" s="4"/>
       <c r="G186" s="4" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6018,17 +6092,17 @@
         <v>112</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E187" s="4"/>
       <c r="G187" s="4" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6036,35 +6110,35 @@
         <v>112</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E188" s="4"/>
       <c r="G188" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E189" s="4"/>
       <c r="G189" s="4" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6072,17 +6146,17 @@
         <v>112</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="E190" s="4"/>
       <c r="G190" s="4" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6090,17 +6164,17 @@
         <v>112</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E191" s="4"/>
       <c r="G191" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6108,35 +6182,35 @@
         <v>112</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E192" s="4"/>
       <c r="G192" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A193" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E193" s="4"/>
       <c r="G193" s="4" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6144,17 +6218,17 @@
         <v>112</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E194" s="4"/>
       <c r="G194" s="4" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6162,17 +6236,17 @@
         <v>112</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E195" s="4"/>
       <c r="G195" s="4" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6180,17 +6254,17 @@
         <v>112</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E196" s="4"/>
       <c r="G196" s="4" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6198,17 +6272,17 @@
         <v>112</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E197" s="4"/>
       <c r="G197" s="4" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6216,35 +6290,35 @@
         <v>112</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E198" s="4"/>
       <c r="G198" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E199" s="4"/>
       <c r="G199" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6252,17 +6326,17 @@
         <v>112</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E200" s="4"/>
       <c r="G200" s="4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6270,17 +6344,17 @@
         <v>112</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E201" s="4"/>
       <c r="G201" s="4" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6288,35 +6362,35 @@
         <v>112</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="E202" s="4"/>
       <c r="G202" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A203" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E203" s="4"/>
       <c r="G203" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6324,17 +6398,17 @@
         <v>112</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E204" s="4"/>
       <c r="G204" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6342,17 +6416,17 @@
         <v>112</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E205" s="4"/>
       <c r="G205" s="4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6360,35 +6434,35 @@
         <v>112</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="E206" s="4"/>
       <c r="G206" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E207" s="4"/>
       <c r="G207" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6396,17 +6470,17 @@
         <v>112</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E208" s="4"/>
       <c r="G208" s="4" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6414,17 +6488,17 @@
         <v>112</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E209" s="4"/>
       <c r="G209" s="4" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6432,35 +6506,35 @@
         <v>112</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E210" s="4"/>
       <c r="G210" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A211" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E211" s="4"/>
       <c r="G211" s="4" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,17 +6542,17 @@
         <v>112</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E212" s="4"/>
       <c r="G212" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6486,17 +6560,17 @@
         <v>112</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E213" s="4"/>
       <c r="G213" s="4" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6504,17 +6578,17 @@
         <v>112</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E214" s="4"/>
       <c r="G214" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6522,17 +6596,17 @@
         <v>112</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E215" s="4"/>
       <c r="G215" s="4" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6540,17 +6614,17 @@
         <v>112</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E216" s="4"/>
       <c r="G216" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6558,17 +6632,17 @@
         <v>112</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E217" s="4"/>
       <c r="G217" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6576,17 +6650,17 @@
         <v>112</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E218" s="4"/>
       <c r="G218" s="4" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6594,17 +6668,17 @@
         <v>112</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E219" s="4"/>
       <c r="G219" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6612,17 +6686,17 @@
         <v>112</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E220" s="4"/>
       <c r="G220" s="4" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6630,17 +6704,17 @@
         <v>112</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E221" s="4"/>
       <c r="G221" s="4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6648,17 +6722,17 @@
         <v>112</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E222" s="4"/>
       <c r="G222" s="4" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6666,17 +6740,17 @@
         <v>112</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E223" s="4"/>
       <c r="G223" s="4" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6684,17 +6758,17 @@
         <v>112</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E224" s="4"/>
       <c r="G224" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6702,17 +6776,17 @@
         <v>112</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E225" s="4"/>
       <c r="G225" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -6720,17 +6794,17 @@
         <v>112</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E226" s="4"/>
       <c r="G226" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6738,35 +6812,35 @@
         <v>112</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E227" s="4"/>
       <c r="G227" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E228" s="4"/>
       <c r="G228" s="4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6774,17 +6848,17 @@
         <v>112</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E229" s="4"/>
       <c r="G229" s="4" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6792,17 +6866,17 @@
         <v>112</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E230" s="4"/>
       <c r="G230" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6810,35 +6884,35 @@
         <v>112</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E231" s="4"/>
       <c r="G231" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="E232" s="4"/>
       <c r="G232" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6846,17 +6920,17 @@
         <v>112</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E233" s="4"/>
       <c r="G233" s="4" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6864,17 +6938,17 @@
         <v>112</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E234" s="4"/>
       <c r="G234" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6882,17 +6956,17 @@
         <v>112</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E235" s="4"/>
       <c r="G235" s="4" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6900,35 +6974,35 @@
         <v>112</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="E236" s="4"/>
       <c r="G236" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E237" s="4"/>
       <c r="G237" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6936,17 +7010,17 @@
         <v>112</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E238" s="4"/>
       <c r="G238" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6954,17 +7028,17 @@
         <v>112</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E239" s="4"/>
       <c r="G239" s="4" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6972,35 +7046,35 @@
         <v>112</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A241" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="E241" s="4"/>
       <c r="G241" s="4" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7008,13 +7082,13 @@
         <v>112</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E242" s="4"/>
       <c r="G242" s="4" t="s">
@@ -7026,17 +7100,17 @@
         <v>112</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E243" s="4"/>
       <c r="G243" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7044,17 +7118,17 @@
         <v>112</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E244" s="4"/>
       <c r="G244" s="4" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7062,17 +7136,17 @@
         <v>112</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="E245" s="4"/>
       <c r="G245" s="4" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7080,17 +7154,17 @@
         <v>112</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E246" s="4"/>
       <c r="G246" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7098,17 +7172,17 @@
         <v>112</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E247" s="4"/>
       <c r="G247" s="4" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7116,17 +7190,17 @@
         <v>112</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E248" s="4"/>
       <c r="G248" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7134,17 +7208,17 @@
         <v>112</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E249" s="4"/>
       <c r="G249" s="4" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7152,17 +7226,17 @@
         <v>112</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E250" s="4"/>
       <c r="G250" s="4" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7170,17 +7244,17 @@
         <v>112</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E251" s="4"/>
       <c r="G251" s="4" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7188,17 +7262,17 @@
         <v>112</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E252" s="4"/>
       <c r="G252" s="4" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7206,17 +7280,17 @@
         <v>112</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E253" s="4"/>
       <c r="G253" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7224,17 +7298,17 @@
         <v>112</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E254" s="4"/>
       <c r="G254" s="4" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7242,17 +7316,17 @@
         <v>112</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E255" s="4"/>
       <c r="G255" s="4" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7260,17 +7334,17 @@
         <v>112</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E256" s="4"/>
       <c r="G256" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7278,17 +7352,17 @@
         <v>112</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E257" s="4"/>
       <c r="G257" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7296,35 +7370,35 @@
         <v>112</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E258" s="4"/>
       <c r="G258" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E259" s="4"/>
       <c r="G259" s="4" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7332,17 +7406,17 @@
         <v>112</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E260" s="4"/>
       <c r="G260" s="4" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7350,17 +7424,17 @@
         <v>112</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="E261" s="4"/>
       <c r="G261" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7368,35 +7442,35 @@
         <v>112</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="E262" s="4"/>
       <c r="G262" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A263" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E263" s="4"/>
       <c r="G263" s="4" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7404,17 +7478,17 @@
         <v>112</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E264" s="4"/>
       <c r="G264" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7422,17 +7496,17 @@
         <v>112</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="E265" s="4"/>
       <c r="G265" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7440,17 +7514,17 @@
         <v>112</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="E266" s="4"/>
       <c r="G266" s="4" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7458,17 +7532,17 @@
         <v>112</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E267" s="4"/>
       <c r="G267" s="4" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7476,35 +7550,35 @@
         <v>112</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E268" s="4"/>
       <c r="G268" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E269" s="4"/>
       <c r="G269" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7512,17 +7586,17 @@
         <v>112</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E270" s="4"/>
       <c r="G270" s="4" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7530,17 +7604,17 @@
         <v>112</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E271" s="4"/>
       <c r="G271" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7548,35 +7622,35 @@
         <v>112</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E272" s="4"/>
       <c r="G272" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A273" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E273" s="4"/>
       <c r="G273" s="4" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -7584,17 +7658,17 @@
         <v>112</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E274" s="4"/>
       <c r="G274" s="4" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -7602,17 +7676,17 @@
         <v>112</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E275" s="4"/>
       <c r="G275" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -7620,35 +7694,35 @@
         <v>112</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E276" s="4"/>
       <c r="G276" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E277" s="4"/>
       <c r="G277" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7656,17 +7730,17 @@
         <v>112</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E278" s="4"/>
       <c r="G278" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7674,17 +7748,17 @@
         <v>112</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E279" s="4"/>
       <c r="G279" s="4" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7692,35 +7766,35 @@
         <v>112</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="E280" s="4"/>
       <c r="G280" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A281" s="30" t="s">
         <v>112</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="E281" s="4"/>
       <c r="G281" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -7728,120 +7802,116 @@
         <v>112</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E282" s="4"/>
       <c r="G282" s="4" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="30"/>
-      <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="A283" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="E283" s="4"/>
-      <c r="G283" s="4"/>
+      <c r="G283" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B284" s="4">
-        <v>101</v>
-      </c>
-      <c r="C284" s="4">
-        <v>101</v>
-      </c>
-      <c r="D284" s="4">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="E284" s="4"/>
-      <c r="G284" s="4"/>
-      <c r="H284" t="s">
-        <v>122</v>
+      <c r="G284" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B285" s="4">
-        <v>102</v>
-      </c>
-      <c r="C285" s="4">
-        <v>102</v>
-      </c>
-      <c r="D285" s="4">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E285" s="4"/>
-      <c r="G285" s="4"/>
-      <c r="H285" t="s">
-        <v>130</v>
+      <c r="G285" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B286" s="4">
-        <v>103</v>
-      </c>
-      <c r="C286" s="4">
-        <v>103</v>
-      </c>
-      <c r="D286" s="4">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="E286" s="4"/>
-      <c r="G286" s="4"/>
-      <c r="H286" t="s">
-        <v>326</v>
+      <c r="G286" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B287" s="4">
-        <v>104</v>
-      </c>
-      <c r="C287" s="4">
-        <v>104</v>
-      </c>
-      <c r="D287" s="4">
-        <v>104</v>
-      </c>
+      <c r="A287" s="30"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="G287" s="4"/>
-      <c r="H287" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="30" t="s">
         <v>344</v>
       </c>
       <c r="B288" s="4">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C288" s="4">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D288" s="4">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -7849,18 +7919,18 @@
         <v>344</v>
       </c>
       <c r="B289" s="4">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C289" s="4">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D289" s="4">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -7868,18 +7938,18 @@
         <v>344</v>
       </c>
       <c r="B290" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C290" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D290" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -7887,18 +7957,18 @@
         <v>344</v>
       </c>
       <c r="B291" s="4">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C291" s="4">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D291" s="4">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -7906,18 +7976,18 @@
         <v>344</v>
       </c>
       <c r="B292" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C292" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D292" s="4">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -7925,18 +7995,18 @@
         <v>344</v>
       </c>
       <c r="B293" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C293" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D293" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -7944,18 +8014,18 @@
         <v>344</v>
       </c>
       <c r="B294" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C294" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D294" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -7963,18 +8033,18 @@
         <v>344</v>
       </c>
       <c r="B295" s="4">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C295" s="4">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D295" s="4">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -7982,18 +8052,18 @@
         <v>344</v>
       </c>
       <c r="B296" s="4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C296" s="4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D296" s="4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" t="s">
-        <v>320</v>
+        <v>147</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -8001,18 +8071,18 @@
         <v>344</v>
       </c>
       <c r="B297" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C297" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D297" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8020,18 +8090,18 @@
         <v>344</v>
       </c>
       <c r="B298" s="4">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C298" s="4">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D298" s="4">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8039,18 +8109,18 @@
         <v>344</v>
       </c>
       <c r="B299" s="4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C299" s="4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D299" s="4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8058,18 +8128,18 @@
         <v>344</v>
       </c>
       <c r="B300" s="4">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C300" s="4">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D300" s="4">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8077,18 +8147,18 @@
         <v>344</v>
       </c>
       <c r="B301" s="4">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C301" s="4">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D301" s="4">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8096,18 +8166,18 @@
         <v>344</v>
       </c>
       <c r="B302" s="4">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C302" s="4">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D302" s="4">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8115,18 +8185,18 @@
         <v>344</v>
       </c>
       <c r="B303" s="4">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C303" s="4">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D303" s="4">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8134,18 +8204,18 @@
         <v>344</v>
       </c>
       <c r="B304" s="4">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C304" s="4">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D304" s="4">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8153,18 +8223,18 @@
         <v>344</v>
       </c>
       <c r="B305" s="4">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C305" s="4">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D305" s="4">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8172,18 +8242,18 @@
         <v>344</v>
       </c>
       <c r="B306" s="4">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C306" s="4">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D306" s="4">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8191,18 +8261,18 @@
         <v>344</v>
       </c>
       <c r="B307" s="4">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C307" s="4">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D307" s="4">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8210,18 +8280,18 @@
         <v>344</v>
       </c>
       <c r="B308" s="4">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C308" s="4">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D308" s="4">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8229,18 +8299,18 @@
         <v>344</v>
       </c>
       <c r="B309" s="4">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C309" s="4">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D309" s="4">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8248,18 +8318,18 @@
         <v>344</v>
       </c>
       <c r="B310" s="4">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C310" s="4">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D310" s="4">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8267,18 +8337,18 @@
         <v>344</v>
       </c>
       <c r="B311" s="4">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C311" s="4">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D311" s="4">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8286,18 +8356,18 @@
         <v>344</v>
       </c>
       <c r="B312" s="4">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C312" s="4">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D312" s="4">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8305,18 +8375,18 @@
         <v>344</v>
       </c>
       <c r="B313" s="4">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C313" s="4">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D313" s="4">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8324,18 +8394,18 @@
         <v>344</v>
       </c>
       <c r="B314" s="4">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C314" s="4">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D314" s="4">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8343,18 +8413,18 @@
         <v>344</v>
       </c>
       <c r="B315" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C315" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D315" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -8362,18 +8432,18 @@
         <v>344</v>
       </c>
       <c r="B316" s="4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C316" s="4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D316" s="4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8381,18 +8451,18 @@
         <v>344</v>
       </c>
       <c r="B317" s="4">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C317" s="4">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D317" s="4">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8400,18 +8470,18 @@
         <v>344</v>
       </c>
       <c r="B318" s="4">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C318" s="4">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D318" s="4">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8419,18 +8489,18 @@
         <v>344</v>
       </c>
       <c r="B319" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C319" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D319" s="4">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -8438,18 +8508,18 @@
         <v>344</v>
       </c>
       <c r="B320" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C320" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D320" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -8457,18 +8527,18 @@
         <v>344</v>
       </c>
       <c r="B321" s="4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C321" s="4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D321" s="4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8476,18 +8546,18 @@
         <v>344</v>
       </c>
       <c r="B322" s="4">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C322" s="4">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D322" s="4">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8495,18 +8565,18 @@
         <v>344</v>
       </c>
       <c r="B323" s="4">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C323" s="4">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D323" s="4">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -8514,18 +8584,18 @@
         <v>344</v>
       </c>
       <c r="B324" s="4">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C324" s="4">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D324" s="4">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -8533,18 +8603,18 @@
         <v>344</v>
       </c>
       <c r="B325" s="4">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C325" s="4">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D325" s="4">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -8552,18 +8622,18 @@
         <v>344</v>
       </c>
       <c r="B326" s="4">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C326" s="4">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D326" s="4">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -8571,18 +8641,18 @@
         <v>344</v>
       </c>
       <c r="B327" s="4">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C327" s="4">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D327" s="4">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8590,18 +8660,18 @@
         <v>344</v>
       </c>
       <c r="B328" s="4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C328" s="4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D328" s="4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -8609,18 +8679,18 @@
         <v>344</v>
       </c>
       <c r="B329" s="4">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C329" s="4">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D329" s="4">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8628,18 +8698,18 @@
         <v>344</v>
       </c>
       <c r="B330" s="4">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C330" s="4">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D330" s="4">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8647,18 +8717,18 @@
         <v>344</v>
       </c>
       <c r="B331" s="4">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C331" s="4">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D331" s="4">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -8666,18 +8736,18 @@
         <v>344</v>
       </c>
       <c r="B332" s="4">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C332" s="4">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D332" s="4">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -8685,18 +8755,18 @@
         <v>344</v>
       </c>
       <c r="B333" s="4">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C333" s="4">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D333" s="4">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8704,18 +8774,18 @@
         <v>344</v>
       </c>
       <c r="B334" s="4">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C334" s="4">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D334" s="4">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -8723,18 +8793,18 @@
         <v>344</v>
       </c>
       <c r="B335" s="4">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C335" s="4">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D335" s="4">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -8742,18 +8812,18 @@
         <v>344</v>
       </c>
       <c r="B336" s="4">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C336" s="4">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D336" s="4">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8761,18 +8831,18 @@
         <v>344</v>
       </c>
       <c r="B337" s="4">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C337" s="4">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D337" s="4">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8780,18 +8850,18 @@
         <v>344</v>
       </c>
       <c r="B338" s="4">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C338" s="4">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D338" s="4">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -8799,18 +8869,18 @@
         <v>344</v>
       </c>
       <c r="B339" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C339" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D339" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -8818,18 +8888,18 @@
         <v>344</v>
       </c>
       <c r="B340" s="4">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C340" s="4">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D340" s="4">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -8837,18 +8907,18 @@
         <v>344</v>
       </c>
       <c r="B341" s="4">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C341" s="4">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D341" s="4">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8856,18 +8926,18 @@
         <v>344</v>
       </c>
       <c r="B342" s="4">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C342" s="4">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D342" s="4">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -8875,18 +8945,18 @@
         <v>344</v>
       </c>
       <c r="B343" s="4">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C343" s="4">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D343" s="4">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -8894,18 +8964,18 @@
         <v>344</v>
       </c>
       <c r="B344" s="4">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C344" s="4">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D344" s="4">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -8913,18 +8983,18 @@
         <v>344</v>
       </c>
       <c r="B345" s="4">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C345" s="4">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D345" s="4">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8932,18 +9002,18 @@
         <v>344</v>
       </c>
       <c r="B346" s="4">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C346" s="4">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D346" s="4">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -8951,18 +9021,18 @@
         <v>344</v>
       </c>
       <c r="B347" s="4">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C347" s="4">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D347" s="4">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -8970,18 +9040,18 @@
         <v>344</v>
       </c>
       <c r="B348" s="4">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C348" s="4">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D348" s="4">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8989,18 +9059,18 @@
         <v>344</v>
       </c>
       <c r="B349" s="4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C349" s="4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D349" s="4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -9008,18 +9078,18 @@
         <v>344</v>
       </c>
       <c r="B350" s="4">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C350" s="4">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D350" s="4">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -9027,18 +9097,18 @@
         <v>344</v>
       </c>
       <c r="B351" s="4">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C351" s="4">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D351" s="4">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9046,18 +9116,18 @@
         <v>344</v>
       </c>
       <c r="B352" s="4">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C352" s="4">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D352" s="4">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9065,18 +9135,18 @@
         <v>344</v>
       </c>
       <c r="B353" s="4">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C353" s="4">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D353" s="4">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -9084,18 +9154,18 @@
         <v>344</v>
       </c>
       <c r="B354" s="4">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C354" s="4">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D354" s="4">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -9103,18 +9173,18 @@
         <v>344</v>
       </c>
       <c r="B355" s="4">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C355" s="4">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D355" s="4">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9122,18 +9192,18 @@
         <v>344</v>
       </c>
       <c r="B356" s="4">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C356" s="4">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D356" s="4">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9141,18 +9211,18 @@
         <v>344</v>
       </c>
       <c r="B357" s="4">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C357" s="4">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D357" s="4">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9160,18 +9230,18 @@
         <v>344</v>
       </c>
       <c r="B358" s="4">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C358" s="4">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D358" s="4">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -9179,18 +9249,18 @@
         <v>344</v>
       </c>
       <c r="B359" s="4">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C359" s="4">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D359" s="4">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9198,18 +9268,18 @@
         <v>344</v>
       </c>
       <c r="B360" s="4">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C360" s="4">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D360" s="4">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -9217,18 +9287,18 @@
         <v>344</v>
       </c>
       <c r="B361" s="4">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C361" s="4">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D361" s="4">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9236,18 +9306,18 @@
         <v>344</v>
       </c>
       <c r="B362" s="4">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C362" s="4">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D362" s="4">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -9255,18 +9325,18 @@
         <v>344</v>
       </c>
       <c r="B363" s="4">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C363" s="4">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D363" s="4">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9274,18 +9344,18 @@
         <v>344</v>
       </c>
       <c r="B364" s="4">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C364" s="4">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D364" s="4">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -9293,18 +9363,18 @@
         <v>344</v>
       </c>
       <c r="B365" s="4">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C365" s="4">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D365" s="4">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -9312,18 +9382,18 @@
         <v>344</v>
       </c>
       <c r="B366" s="4">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C366" s="4">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D366" s="4">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9331,18 +9401,18 @@
         <v>344</v>
       </c>
       <c r="B367" s="4">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C367" s="4">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D367" s="4">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -9350,18 +9420,18 @@
         <v>344</v>
       </c>
       <c r="B368" s="4">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C368" s="4">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D368" s="4">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -9369,18 +9439,18 @@
         <v>344</v>
       </c>
       <c r="B369" s="4">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C369" s="4">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D369" s="4">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -9388,18 +9458,18 @@
         <v>344</v>
       </c>
       <c r="B370" s="4">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C370" s="4">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D370" s="4">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -9407,18 +9477,18 @@
         <v>344</v>
       </c>
       <c r="B371" s="4">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C371" s="4">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D371" s="4">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -9426,18 +9496,18 @@
         <v>344</v>
       </c>
       <c r="B372" s="4">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C372" s="4">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D372" s="4">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -9445,18 +9515,18 @@
         <v>344</v>
       </c>
       <c r="B373" s="4">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C373" s="4">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D373" s="4">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -9464,18 +9534,18 @@
         <v>344</v>
       </c>
       <c r="B374" s="4">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C374" s="4">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D374" s="4">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -9483,18 +9553,18 @@
         <v>344</v>
       </c>
       <c r="B375" s="4">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C375" s="4">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D375" s="4">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9502,18 +9572,18 @@
         <v>344</v>
       </c>
       <c r="B376" s="4">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C376" s="4">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D376" s="4">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -9521,18 +9591,18 @@
         <v>344</v>
       </c>
       <c r="B377" s="4">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C377" s="4">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D377" s="4">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -9540,18 +9610,18 @@
         <v>344</v>
       </c>
       <c r="B378" s="4">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C378" s="4">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D378" s="4">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9559,18 +9629,18 @@
         <v>344</v>
       </c>
       <c r="B379" s="4">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C379" s="4">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D379" s="4">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9578,18 +9648,18 @@
         <v>344</v>
       </c>
       <c r="B380" s="4">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C380" s="4">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D380" s="4">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9597,18 +9667,18 @@
         <v>344</v>
       </c>
       <c r="B381" s="4">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C381" s="4">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D381" s="4">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9616,18 +9686,18 @@
         <v>344</v>
       </c>
       <c r="B382" s="4">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C382" s="4">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D382" s="4">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9635,18 +9705,18 @@
         <v>344</v>
       </c>
       <c r="B383" s="4">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C383" s="4">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D383" s="4">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9654,18 +9724,18 @@
         <v>344</v>
       </c>
       <c r="B384" s="4">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C384" s="4">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D384" s="4">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9673,18 +9743,18 @@
         <v>344</v>
       </c>
       <c r="B385" s="4">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C385" s="4">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D385" s="4">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9692,18 +9762,18 @@
         <v>344</v>
       </c>
       <c r="B386" s="4">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C386" s="4">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D386" s="4">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -9711,18 +9781,18 @@
         <v>344</v>
       </c>
       <c r="B387" s="4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C387" s="4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D387" s="4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -9730,18 +9800,18 @@
         <v>344</v>
       </c>
       <c r="B388" s="4">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C388" s="4">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D388" s="4">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9749,18 +9819,18 @@
         <v>344</v>
       </c>
       <c r="B389" s="4">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C389" s="4">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D389" s="4">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -9768,18 +9838,18 @@
         <v>344</v>
       </c>
       <c r="B390" s="4">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C390" s="4">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D390" s="4">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -9787,18 +9857,18 @@
         <v>344</v>
       </c>
       <c r="B391" s="4">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C391" s="4">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D391" s="4">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -9806,18 +9876,18 @@
         <v>344</v>
       </c>
       <c r="B392" s="4">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C392" s="4">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D392" s="4">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -9825,18 +9895,18 @@
         <v>344</v>
       </c>
       <c r="B393" s="4">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C393" s="4">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D393" s="4">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -9844,18 +9914,18 @@
         <v>344</v>
       </c>
       <c r="B394" s="4">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C394" s="4">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D394" s="4">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9863,18 +9933,18 @@
         <v>344</v>
       </c>
       <c r="B395" s="4">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C395" s="4">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D395" s="4">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9882,18 +9952,18 @@
         <v>344</v>
       </c>
       <c r="B396" s="4">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C396" s="4">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D396" s="4">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9901,18 +9971,18 @@
         <v>344</v>
       </c>
       <c r="B397" s="4">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C397" s="4">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D397" s="4">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -9920,18 +9990,18 @@
         <v>344</v>
       </c>
       <c r="B398" s="4">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C398" s="4">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D398" s="4">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -9939,18 +10009,18 @@
         <v>344</v>
       </c>
       <c r="B399" s="4">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C399" s="4">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D399" s="4">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -9958,18 +10028,18 @@
         <v>344</v>
       </c>
       <c r="B400" s="4">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C400" s="4">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D400" s="4">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9977,18 +10047,18 @@
         <v>344</v>
       </c>
       <c r="B401" s="4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C401" s="4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D401" s="4">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9996,18 +10066,18 @@
         <v>344</v>
       </c>
       <c r="B402" s="4">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C402" s="4">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D402" s="4">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -10015,47 +10085,95 @@
         <v>344</v>
       </c>
       <c r="B403" s="4">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C403" s="4">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D403" s="4">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E403" s="4"/>
       <c r="G403" s="4"/>
       <c r="H403" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B404" s="4">
+        <v>217</v>
+      </c>
+      <c r="C404" s="4">
+        <v>217</v>
+      </c>
+      <c r="D404" s="4">
+        <v>217</v>
+      </c>
+      <c r="E404" s="4"/>
+      <c r="G404" s="4"/>
+      <c r="H404" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B405" s="4">
+        <v>218</v>
+      </c>
+      <c r="C405" s="4">
+        <v>218</v>
+      </c>
+      <c r="D405" s="4">
+        <v>218</v>
+      </c>
+      <c r="E405" s="4"/>
+      <c r="G405" s="4"/>
+      <c r="H405" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B406" s="4">
+        <v>219</v>
+      </c>
+      <c r="C406" s="4">
+        <v>219</v>
+      </c>
+      <c r="D406" s="4">
+        <v>219</v>
+      </c>
+      <c r="E406" s="4"/>
+      <c r="G406" s="4"/>
+      <c r="H406" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B407" s="4">
+        <v>220</v>
+      </c>
+      <c r="C407" s="4">
+        <v>220</v>
+      </c>
+      <c r="D407" s="4">
+        <v>220</v>
+      </c>
+      <c r="E407" s="4"/>
+      <c r="G407" s="4"/>
+      <c r="H407" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="17"/>
-      <c r="H405" s="4"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B406" s="17"/>
-      <c r="C406" s="17"/>
-      <c r="D406" s="17"/>
-      <c r="E406" s="17"/>
-      <c r="H406" s="4"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B407" s="17"/>
-      <c r="C407" s="17"/>
-      <c r="D407" s="17"/>
-      <c r="E407" s="17"/>
-      <c r="H407" s="4"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B408" s="17"/>
-      <c r="C408" s="17"/>
-      <c r="D408" s="17"/>
-      <c r="E408" s="17"/>
-      <c r="H408" s="4"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B409" s="17"/>
@@ -12142,6 +12260,34 @@
       <c r="D706" s="17"/>
       <c r="E706" s="17"/>
       <c r="H706" s="4"/>
+    </row>
+    <row r="707" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B707" s="17"/>
+      <c r="C707" s="17"/>
+      <c r="D707" s="17"/>
+      <c r="E707" s="17"/>
+      <c r="H707" s="4"/>
+    </row>
+    <row r="708" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B708" s="17"/>
+      <c r="C708" s="17"/>
+      <c r="D708" s="17"/>
+      <c r="E708" s="17"/>
+      <c r="H708" s="4"/>
+    </row>
+    <row r="709" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B709" s="17"/>
+      <c r="C709" s="17"/>
+      <c r="D709" s="17"/>
+      <c r="E709" s="17"/>
+      <c r="H709" s="4"/>
+    </row>
+    <row r="710" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B710" s="17"/>
+      <c r="C710" s="17"/>
+      <c r="D710" s="17"/>
+      <c r="E710" s="17"/>
+      <c r="H710" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -12154,7 +12300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
